--- a/medicine/Enfance/Daniel_Picouly/Daniel_Picouly.xlsx
+++ b/medicine/Enfance/Daniel_Picouly/Daniel_Picouly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Picouly, né le 21 octobre 1948 à Villemomble, est un écrivain français, également animateur de télévision et scénariste de bande dessinée.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1948 à Villemomble d'un père originaire de la Martinique[1] et d'une mère originaire du Morvan, il est le onzième d'une famille de treize enfants. Il fait des études de comptabilité, de gestion et de droit notamment à l'Université de Paris Dauphine, puis devient professeur d'économie à Paris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1948 à Villemomble d'un père originaire de la Martinique et d'une mère originaire du Morvan, il est le onzième d'une famille de treize enfants. Il fait des études de comptabilité, de gestion et de droit notamment à l'Université de Paris Dauphine, puis devient professeur d'économie à Paris.
 En 1992, grâce à Daniel Pennac, il publie son premier roman intitulé La Lumière des fous. Puis Nec en 1993. 
-Il obtient un grand succès en 1995 avec Le Champ de personne. Dans ce livre, comme dans plusieurs autres, il raconte son enfance sous une forme romanesque[2].
+Il obtient un grand succès en 1995 avec Le Champ de personne. Dans ce livre, comme dans plusieurs autres, il raconte son enfance sous une forme romanesque.
 Il joue son propre rôle en 2002 dans le film Imposture.
-De mai 2005 à mai 2008, il présente l'émission culturelle Café Picouly sur France 5, conçue par l'écrivain debordien Stéphane Zagdanski. De septembre 2008 à juin 2009, il présente Café littéraire sur France 2, avant de revenir sur France 5 en septembre 2009 avec son Café Picouly, en version plus étoffée jusqu'en mai 2011. Dans le cadre du remaniement de la chaîne, l'émission s'arrête en 2011[3].
+De mai 2005 à mai 2008, il présente l'émission culturelle Café Picouly sur France 5, conçue par l'écrivain debordien Stéphane Zagdanski. De septembre 2008 à juin 2009, il présente Café littéraire sur France 2, avant de revenir sur France 5 en septembre 2009 avec son Café Picouly, en version plus étoffée jusqu'en mai 2011. Dans le cadre du remaniement de la chaîne, l'émission s'arrête en 2011.
 De la rentrée 2011 jusqu'en 2014, il présente Le Monde vu par... sur France Ô, émission d'entretiens avec des personnalités politiques, et en juillet 2012 La minute OFF. Il présente Page 19 sur la même chaîne depuis 2014.
 Il est président du jury francophone pour le prix du roman d'amour du Prince Maurice, les années impaires.
 Il se lance dans le seul en scène à la rentrée 2012 avec La faute d'orthographe est ma langue maternelle, au théâtre Tristan Bernard. Ce récit autobiographique, articulé sur ses souvenirs de cancre, lui permet de revenir sur la genèse paradoxale de sa carrière d'écrivain, tout en évoquant avec affection ses parents et ses deux plus jeunes sœurs.
@@ -554,19 +568,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans et autres
-La Lumière des fous (1991)
+          <t>Romans et autres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Lumière des fous (1991)
 Nec (1993)
 Les Larmes du chef (1994), Gallimard, Série noire
 Le Champ de personne, Flammarion (1995)
 Vivement Noël !, éd. Hoebeke, (1996) (beau livre illustré, avec photographies noir et blanc)
 Fort de l'eau (1997)
 Le 13e But (1998). Chronique de la coupe du monde de football 1958
-Tête de nègre (1998) (adapté en bande dessinée en 2002 par Jürg[4],[5])
+Tête de nègre (1998) (adapté en bande dessinée en 2002 par Jürg,)
 L'Enfant léopard (1999) - Prix Renaudot 1999
 On lit trop dans ce pays ! (2000)
 Paulette et Roger (2001)
-Retour de flammes, avec José Muñoz, 2003. Bande dessinée[6].
+Retour de flammes, avec José Muñoz, 2003. Bande dessinée.
 La Donzelle (2004)
 La Treizième Mort du chevalier (2005)
 Le Cœur à la craie (2005)
@@ -581,13 +600,81 @@
 Leçons d’observation, éditions Hoëbeke, (2014)
 Le Cri muet de l’iguane, éditions Albin Michel, (2015)
 La Victoire du nègre (2017)
-Quatre-vingt-dix secondes, éditions Albin Michel, (2018). Récit romanesque de l'éruption de la montagne Pelée en 1902. Prix Nice-Baie-des-Anges 2019[7]
+Quatre-vingt-dix secondes, éditions Albin Michel, (2018). Récit romanesque de l'éruption de la montagne Pelée en 1902. Prix Nice-Baie-des-Anges 2019
 Longtemps je me suis couché de bonheur, éditions Albin Michel, (2020)
-Les Larmes du vin, éditions Albin Michel  (2022)
-Nouvelles
-Plein air, dans C'est la rentrée ! : 16 écrivains racontent.... Paris : EJL, coll. "Librio", suppl. à Libération du 4 septembre 1997, p. 45-49.
-Littérature jeunesse
-Série Hondo mène l'enquête, éd. Flammarion (romans jeunesse) :
+Les Larmes du vin, éditions Albin Michel  (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daniel_Picouly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Picouly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plein air, dans C'est la rentrée ! : 16 écrivains racontent.... Paris : EJL, coll. "Librio", suppl. à Libération du 4 septembre 1997, p. 45-49.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Picouly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Picouly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Hondo mène l'enquête, éd. Flammarion (romans jeunesse) :
 Cauchemar pirate (1995)
 Le Lutteur de sumo (1996)
 La Coupe du monde n'aura pas lieu ! (1998)
@@ -600,7 +687,7 @@
 Lulu a un amoureux (2005)
 Lulu grand chef (2010)
 Album
-Et si on redessinait le monde ?[8], illustré par Nathalie Novi, éditions Rue du monde, 2013 Prix Amerigo-Vespucci Jeunesse 2014.</t>
+Et si on redessinait le monde ?, illustré par Nathalie Novi, éditions Rue du monde, 2013 Prix Amerigo-Vespucci Jeunesse 2014.</t>
         </is>
       </c>
     </row>
